--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\travel ai\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41009041-3690-44D6-84FE-7AB92A0A8716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB26458-BF6F-4E25-8C47-DBAF23233D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
